--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>173.715416527027</v>
+        <v>184.0626906666667</v>
       </c>
       <c r="H2">
-        <v>173.715416527027</v>
+        <v>552.188072</v>
       </c>
       <c r="I2">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503485</v>
       </c>
       <c r="J2">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503486</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.572794508389002</v>
+        <v>0.6723143333333333</v>
       </c>
       <c r="N2">
-        <v>0.572794508389002</v>
+        <v>2.016943</v>
       </c>
       <c r="O2">
-        <v>0.1658075874815323</v>
+        <v>0.1884809556899308</v>
       </c>
       <c r="P2">
-        <v>0.1658075874815323</v>
+        <v>0.1884809556899308</v>
       </c>
       <c r="Q2">
-        <v>99.50323660918914</v>
+        <v>123.7479851670996</v>
       </c>
       <c r="R2">
-        <v>99.50323660918914</v>
+        <v>1113.731866503896</v>
       </c>
       <c r="S2">
-        <v>0.1063382103543856</v>
+        <v>0.1227106346068168</v>
       </c>
       <c r="T2">
-        <v>0.1063382103543856</v>
+        <v>0.1227106346068168</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>173.715416527027</v>
+        <v>184.0626906666667</v>
       </c>
       <c r="H3">
-        <v>173.715416527027</v>
+        <v>552.188072</v>
       </c>
       <c r="I3">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503485</v>
       </c>
       <c r="J3">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503486</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9406534519770799</v>
+        <v>0.945804</v>
       </c>
       <c r="N3">
-        <v>0.9406534519770799</v>
+        <v>2.837412</v>
       </c>
       <c r="O3">
-        <v>0.2722922046986051</v>
+        <v>0.2651528206032981</v>
       </c>
       <c r="P3">
-        <v>0.2722922046986051</v>
+        <v>0.2651528206032981</v>
       </c>
       <c r="Q3">
-        <v>163.4060062177842</v>
+        <v>174.087229083296</v>
       </c>
       <c r="R3">
-        <v>163.4060062177842</v>
+        <v>1566.785061749664</v>
       </c>
       <c r="S3">
-        <v>0.1746305231316674</v>
+        <v>0.1726278963565144</v>
       </c>
       <c r="T3">
-        <v>0.1746305231316674</v>
+        <v>0.1726278963565145</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>173.715416527027</v>
+        <v>184.0626906666667</v>
       </c>
       <c r="H4">
-        <v>173.715416527027</v>
+        <v>552.188072</v>
       </c>
       <c r="I4">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503485</v>
       </c>
       <c r="J4">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503486</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.94112560342092</v>
+        <v>1.948896333333333</v>
       </c>
       <c r="N4">
-        <v>1.94112560342092</v>
+        <v>5.846689</v>
       </c>
       <c r="O4">
-        <v>0.5619002078198627</v>
+        <v>0.546366223706771</v>
       </c>
       <c r="P4">
-        <v>0.5619002078198627</v>
+        <v>0.546366223706771</v>
       </c>
       <c r="Q4">
-        <v>337.2034427295418</v>
+        <v>358.7191029437342</v>
       </c>
       <c r="R4">
-        <v>337.2034427295418</v>
+        <v>3228.471926493608</v>
       </c>
       <c r="S4">
-        <v>0.3603662739739018</v>
+        <v>0.3557120441870172</v>
       </c>
       <c r="T4">
-        <v>0.3603662739739018</v>
+        <v>0.3557120441870173</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>56.9446226060136</v>
+        <v>57.4434</v>
       </c>
       <c r="H5">
-        <v>56.9446226060136</v>
+        <v>172.3302</v>
       </c>
       <c r="I5">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="J5">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.572794508389002</v>
+        <v>0.6723143333333333</v>
       </c>
       <c r="N5">
-        <v>0.572794508389002</v>
+        <v>2.016943</v>
       </c>
       <c r="O5">
-        <v>0.1658075874815323</v>
+        <v>0.1884809556899308</v>
       </c>
       <c r="P5">
-        <v>0.1658075874815323</v>
+        <v>0.1884809556899308</v>
       </c>
       <c r="Q5">
-        <v>32.61756711100881</v>
+        <v>38.6200211754</v>
       </c>
       <c r="R5">
-        <v>32.61756711100881</v>
+        <v>347.5801905786</v>
       </c>
       <c r="S5">
-        <v>0.03485809940355677</v>
+        <v>0.03829627852576951</v>
       </c>
       <c r="T5">
-        <v>0.03485809940355677</v>
+        <v>0.0382962785257695</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>56.9446226060136</v>
+        <v>57.4434</v>
       </c>
       <c r="H6">
-        <v>56.9446226060136</v>
+        <v>172.3302</v>
       </c>
       <c r="I6">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="J6">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9406534519770799</v>
+        <v>0.945804</v>
       </c>
       <c r="N6">
-        <v>0.9406534519770799</v>
+        <v>2.837412</v>
       </c>
       <c r="O6">
-        <v>0.2722922046986051</v>
+        <v>0.2651528206032981</v>
       </c>
       <c r="P6">
-        <v>0.2722922046986051</v>
+        <v>0.2651528206032981</v>
       </c>
       <c r="Q6">
-        <v>53.56515582587875</v>
+        <v>54.3301974936</v>
       </c>
       <c r="R6">
-        <v>53.56515582587875</v>
+        <v>488.9717774424</v>
       </c>
       <c r="S6">
-        <v>0.05724459828628038</v>
+        <v>0.05387476009206045</v>
       </c>
       <c r="T6">
-        <v>0.05724459828628038</v>
+        <v>0.05387476009206045</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>56.9446226060136</v>
+        <v>57.4434</v>
       </c>
       <c r="H7">
-        <v>56.9446226060136</v>
+        <v>172.3302</v>
       </c>
       <c r="I7">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="J7">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.94112560342092</v>
+        <v>1.948896333333333</v>
       </c>
       <c r="N7">
-        <v>1.94112560342092</v>
+        <v>5.846689</v>
       </c>
       <c r="O7">
-        <v>0.5619002078198627</v>
+        <v>0.546366223706771</v>
       </c>
       <c r="P7">
-        <v>0.5619002078198627</v>
+        <v>0.546366223706771</v>
       </c>
       <c r="Q7">
-        <v>110.5366649176747</v>
+        <v>111.9512316342</v>
       </c>
       <c r="R7">
-        <v>110.5366649176747</v>
+        <v>1007.5610847078</v>
       </c>
       <c r="S7">
-        <v>0.1181295355452028</v>
+        <v>0.1110127705133723</v>
       </c>
       <c r="T7">
-        <v>0.1181295355452028</v>
+        <v>0.1110127705133723</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.2052878900969</v>
+        <v>41.21033366666666</v>
       </c>
       <c r="H8">
-        <v>40.2052878900969</v>
+        <v>123.631001</v>
       </c>
       <c r="I8">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="J8">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.572794508389002</v>
+        <v>0.6723143333333333</v>
       </c>
       <c r="N8">
-        <v>0.572794508389002</v>
+        <v>2.016943</v>
       </c>
       <c r="O8">
-        <v>0.1658075874815323</v>
+        <v>0.1884809556899308</v>
       </c>
       <c r="P8">
-        <v>0.1658075874815323</v>
+        <v>0.1884809556899308</v>
       </c>
       <c r="Q8">
-        <v>23.02936811164635</v>
+        <v>27.70629800554922</v>
       </c>
       <c r="R8">
-        <v>23.02936811164635</v>
+        <v>249.356682049943</v>
       </c>
       <c r="S8">
-        <v>0.02461127772358987</v>
+        <v>0.02747404255734449</v>
       </c>
       <c r="T8">
-        <v>0.02461127772358987</v>
+        <v>0.02747404255734449</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.2052878900969</v>
+        <v>41.21033366666666</v>
       </c>
       <c r="H9">
-        <v>40.2052878900969</v>
+        <v>123.631001</v>
       </c>
       <c r="I9">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="J9">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9406534519770799</v>
+        <v>0.945804</v>
       </c>
       <c r="N9">
-        <v>0.9406534519770799</v>
+        <v>2.837412</v>
       </c>
       <c r="O9">
-        <v>0.2722922046986051</v>
+        <v>0.2651528206032981</v>
       </c>
       <c r="P9">
-        <v>0.2722922046986051</v>
+        <v>0.2651528206032981</v>
       </c>
       <c r="Q9">
-        <v>37.81924284155193</v>
+        <v>38.976898423268</v>
       </c>
       <c r="R9">
-        <v>37.81924284155193</v>
+        <v>350.792085809412</v>
       </c>
       <c r="S9">
-        <v>0.04041708328065726</v>
+        <v>0.03865016415472323</v>
       </c>
       <c r="T9">
-        <v>0.04041708328065726</v>
+        <v>0.03865016415472323</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.2052878900969</v>
+        <v>41.21033366666666</v>
       </c>
       <c r="H10">
-        <v>40.2052878900969</v>
+        <v>123.631001</v>
       </c>
       <c r="I10">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="J10">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.94112560342092</v>
+        <v>1.948896333333333</v>
       </c>
       <c r="N10">
-        <v>1.94112560342092</v>
+        <v>5.846689</v>
       </c>
       <c r="O10">
-        <v>0.5619002078198627</v>
+        <v>0.546366223706771</v>
       </c>
       <c r="P10">
-        <v>0.5619002078198627</v>
+        <v>0.546366223706771</v>
       </c>
       <c r="Q10">
-        <v>78.04351371637615</v>
+        <v>80.31466817840987</v>
       </c>
       <c r="R10">
-        <v>78.04351371637615</v>
+        <v>722.832013605689</v>
       </c>
       <c r="S10">
-        <v>0.08340439830075809</v>
+        <v>0.07964140900638139</v>
       </c>
       <c r="T10">
-        <v>0.08340439830075809</v>
+        <v>0.07964140900638139</v>
       </c>
     </row>
   </sheetData>
